--- a/Initial data/Ведомость вычисления с ручной раскидкой.xlsx
+++ b/Initial data/Ведомость вычисления с ручной раскидкой.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0A8F2-FEC9-42E4-81C4-8C4EDAA94151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -298,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -517,11 +528,9 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -535,6 +544,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,7 +559,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -641,6 +652,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -676,6 +704,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -851,11 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,69 +994,69 @@
       <c r="S3" s="44"/>
     </row>
     <row r="4" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
       <c r="U4" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
       <c r="U5" s="2"/>
       <c r="V5">
         <v>114.91200000000001</v>
@@ -1034,7 +1079,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1107,7 @@
       <c r="J6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="45" t="s">
         <v>40</v>
       </c>
@@ -1101,27 +1146,27 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
       <c r="U7" s="2"/>
       <c r="V7">
         <v>29.138500000000001</v>
@@ -1863,7 +1908,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
-      <c r="R20" s="50">
+      <c r="R20" s="40">
         <f>R18+P19</f>
         <v>83213.87999999999</v>
       </c>
@@ -2080,10 +2125,10 @@
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2126,14 +2171,14 @@
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="41">
         <v>900</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41">
         <v>900</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2170,10 +2215,10 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2205,21 +2250,21 @@
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="5" t="s">
         <v>18</v>
       </c>
@@ -2231,21 +2276,21 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
     </row>
     <row r="29" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2257,8 +2302,8 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="U30">
@@ -2469,6 +2514,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="A1:S1"/>
@@ -2485,22 +2546,6 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2508,11 +2553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D1:AB39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:S30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,10 +2601,10 @@
       <c r="V2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="46"/>
+      <c r="AB2" s="47"/>
     </row>
     <row r="3" spans="4:28" x14ac:dyDescent="0.25">
       <c r="K3" s="2">
@@ -2645,14 +2690,14 @@
       </c>
     </row>
     <row r="5" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="2">
         <v>179</v>
       </c>
@@ -2686,20 +2731,20 @@
       </c>
     </row>
     <row r="6" spans="4:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="47" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="3"/>
@@ -2759,10 +2804,10 @@
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="47"/>
       <c r="K7" s="4">
         <v>204</v>
       </c>
@@ -2796,23 +2841,23 @@
       </c>
     </row>
     <row r="8" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D8" s="46">
+      <c r="D8" s="47">
         <v>313</v>
       </c>
       <c r="E8" s="2">
         <v>314</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="47">
         <f>G9</f>
         <v>23.824444444444445</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="47">
         <f>AVERAGE(H8,H10)</f>
         <v>23.821805555555553</v>
       </c>
@@ -2866,17 +2911,17 @@
       </c>
     </row>
     <row r="9" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="2">
         <f>N1</f>
         <v>23.824444444444445</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="2">
         <v>24</v>
       </c>
@@ -2910,23 +2955,23 @@
       </c>
     </row>
     <row r="10" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="2">
         <v>314</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="2">
         <f>N2</f>
         <v>179.9997222222222</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="47">
         <f>(G10+G11)-360</f>
         <v>23.819166666666661</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47">
         <f>N30-180+I8</f>
         <v>104.39625000000001</v>
       </c>
@@ -2965,18 +3010,18 @@
       </c>
     </row>
     <row r="11" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="2">
         <f>N3</f>
         <v>203.81944444444443</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="2">
         <v>180</v>
       </c>
@@ -3004,27 +3049,27 @@
       </c>
     </row>
     <row r="12" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D12" s="46">
+      <c r="D12" s="47">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>313</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="47">
         <f>G13</f>
         <v>238.49777777777777</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="47">
         <f>AVERAGE(H12,H14)</f>
         <v>238.48847222222221</v>
       </c>
-      <c r="J12" s="46"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="2">
         <v>247</v>
       </c>
@@ -3060,18 +3105,18 @@
       </c>
     </row>
     <row r="13" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="2">
         <f>N4</f>
         <v>238.49777777777777</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="2">
         <v>180</v>
       </c>
@@ -3090,23 +3135,23 @@
       </c>
     </row>
     <row r="14" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="2">
         <v>313</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="2">
         <f>N5</f>
         <v>179.98833333333332</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="47">
         <f>G14+G15</f>
         <v>238.47916666666666</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47">
         <f>J10-180+I12</f>
         <v>162.88472222222222</v>
       </c>
@@ -3145,18 +3190,18 @@
       </c>
     </row>
     <row r="15" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="2">
         <f>N6</f>
         <v>58.490833333333335</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="2">
         <v>0</v>
       </c>
@@ -3175,27 +3220,27 @@
       </c>
     </row>
     <row r="16" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D16" s="46">
+      <c r="D16" s="47">
         <v>2</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="47">
         <f>G17</f>
         <v>204.44361111111112</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="47">
         <f>AVERAGE(H16,H18)</f>
         <v>204.45097222222222</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="2">
         <v>82</v>
       </c>
@@ -3231,18 +3276,18 @@
       </c>
     </row>
     <row r="17" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="2">
         <v>3</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="2">
         <f>N7</f>
         <v>204.44361111111112</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="2">
         <v>180</v>
       </c>
@@ -3261,23 +3306,23 @@
       </c>
     </row>
     <row r="18" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="2">
         <f>N8</f>
         <v>180.00444444444443</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="47">
         <f>G18+G19</f>
         <v>204.45833333333331</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46">
+      <c r="I18" s="47"/>
+      <c r="J18" s="47">
         <f t="shared" ref="J18" si="14">J14-180+I16</f>
         <v>187.33569444444444</v>
       </c>
@@ -3316,18 +3361,18 @@
       </c>
     </row>
     <row r="19" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="2">
         <f>N9</f>
         <v>24.453888888888887</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="2">
         <v>102</v>
       </c>
@@ -3346,27 +3391,27 @@
       </c>
     </row>
     <row r="20" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D20" s="46">
+      <c r="D20" s="47">
         <v>3</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="47">
         <f>G21</f>
         <v>68.000277777777782</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="47">
         <f t="shared" ref="I20" si="17">AVERAGE(H20,H22)</f>
         <v>67.998750000000001</v>
       </c>
-      <c r="J20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="2">
         <v>179</v>
       </c>
@@ -3382,18 +3427,18 @@
       </c>
     </row>
     <row r="21" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="2">
         <f>N10</f>
         <v>68.000277777777782</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="2">
         <v>282</v>
       </c>
@@ -3409,23 +3454,23 @@
       </c>
     </row>
     <row r="22" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="2">
         <f>N11</f>
         <v>180.00444444444443</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="47">
         <f>(G22+G23)-360</f>
         <v>67.997222222222206</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47">
         <f t="shared" ref="J22" si="18">J18-180+I20</f>
         <v>75.334444444444443</v>
       </c>
@@ -3452,18 +3497,18 @@
       </c>
     </row>
     <row r="23" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="2">
         <f>N12</f>
         <v>247.99277777777777</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="2">
         <v>80</v>
       </c>
@@ -3484,27 +3529,27 @@
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D24" s="46">
+      <c r="D24" s="47">
         <v>4</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="47">
         <f>G25</f>
         <v>180.5313888888889</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="47">
         <f t="shared" ref="I24" si="20">AVERAGE(H24,H26)</f>
         <v>180.53083333333333</v>
       </c>
-      <c r="J24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="9">
         <v>104</v>
       </c>
@@ -3546,18 +3591,18 @@
       </c>
     </row>
     <row r="25" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="2">
         <f>N13</f>
         <v>180.5313888888889</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="8">
         <v>162</v>
       </c>
@@ -3595,23 +3640,23 @@
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="2">
         <f>N14</f>
         <v>179.99888888888887</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="47">
         <f>G26+G27</f>
         <v>180.53027777777777</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46">
+      <c r="I26" s="47"/>
+      <c r="J26" s="47">
         <f t="shared" ref="J26" si="25">J22-180+I24</f>
         <v>75.865277777777777</v>
       </c>
@@ -3656,18 +3701,18 @@
       </c>
     </row>
     <row r="27" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="2">
         <f>N15</f>
         <v>0.53138888888888891</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="8">
         <v>75</v>
       </c>
@@ -3705,27 +3750,27 @@
       <c r="V27" s="7"/>
     </row>
     <row r="28" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D28" s="46">
+      <c r="D28" s="47">
         <v>5</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="47">
         <f>G29</f>
         <v>82.237222222222229</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="47">
         <f t="shared" ref="I28" si="26">AVERAGE(H28,H30)</f>
         <v>82.243750000000006</v>
       </c>
-      <c r="J28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="8">
         <v>75</v>
       </c>
@@ -3767,18 +3812,18 @@
       </c>
     </row>
     <row r="29" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D29" s="46"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2">
         <v>314</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="2">
         <f>N16</f>
         <v>82.237222222222229</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="8">
         <v>338</v>
       </c>
@@ -3816,23 +3861,23 @@
       <c r="V29" s="7"/>
     </row>
     <row r="30" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="2">
         <f>N17</f>
         <v>180.01555555555555</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="47">
         <f>(G30+G31)-360</f>
         <v>82.250277777777796</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46">
+      <c r="I30" s="47"/>
+      <c r="J30" s="47">
         <f>J26-180+I28+360</f>
         <v>338.10902777777778</v>
       </c>
@@ -3877,43 +3922,43 @@
       </c>
     </row>
     <row r="31" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2">
         <v>314</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="2">
         <f>N18</f>
         <v>262.23472222222222</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
     </row>
     <row r="32" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D32" s="46">
+      <c r="D32" s="47">
         <v>314</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="47">
         <f>G33</f>
         <v>102.46861111111112</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="47">
         <f t="shared" ref="I32" si="27">AVERAGE(H32,H34)</f>
         <v>102.465</v>
       </c>
-      <c r="J32" s="46"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="U32" s="7">
@@ -3924,18 +3969,18 @@
       </c>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2">
         <v>313</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="2">
         <f>N19</f>
         <v>102.46861111111112</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="N33" s="2">
@@ -3958,23 +4003,23 @@
       <c r="V33" s="7"/>
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D34" s="46"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2">
         <v>5</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="2">
         <f>N20</f>
         <v>179.99583333333331</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="47">
         <f>(G34+G35)-360</f>
         <v>102.46138888888891</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46">
+      <c r="I34" s="47"/>
+      <c r="J34" s="47">
         <f>J30-180+I32</f>
         <v>260.57402777777781</v>
       </c>
@@ -4004,18 +4049,18 @@
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2">
         <v>313</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="2">
         <f>N21</f>
         <v>282.46555555555557</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="N35" s="2">
@@ -4038,7 +4083,7 @@
       <c r="V35" s="7"/>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="J36" s="46"/>
+      <c r="J36" s="47"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="N36" s="2">
@@ -4072,7 +4117,7 @@
         <f>180*7</f>
         <v>1260</v>
       </c>
-      <c r="J37" s="46"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="N37" s="2">
@@ -4132,6 +4177,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F16:F17"/>
@@ -4148,60 +4233,8 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Initial data/Ведомость вычисления с ручной раскидкой.xlsx
+++ b/Initial data/Ведомость вычисления с ручной раскидкой.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0A8F2-FEC9-42E4-81C4-8C4EDAA94151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6BF8C-5078-4CE1-86F4-DD44C2AFCA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>ВЕДОМОСТЬ  ВЫЧИСЛЕНИЯ  КООРДИНАТ</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Делал 314-313</t>
+  </si>
+  <si>
+    <t>ИЗМЕРЯЛИСЬ левые углы по ходу движения теодолитного хода и шли мы против часовой стрелки</t>
   </si>
 </sst>
 </file>
@@ -532,6 +535,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,9 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -899,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,69 +932,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
+      <c r="A3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -1108,14 +1113,14 @@
         <v>9</v>
       </c>
       <c r="K6" s="41"/>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="46"/>
+      <c r="N6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2215,10 +2220,10 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2514,6 +2519,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L5:O5"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="G28:G29"/>
@@ -2530,22 +2551,6 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="S28:S29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4177,11 +4182,41 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="J30:J33"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="D5:I5"/>
@@ -4198,41 +4233,11 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Initial data/Ведомость вычисления с ручной раскидкой.xlsx
+++ b/Initial data/Ведомость вычисления с ручной раскидкой.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6BF8C-5078-4CE1-86F4-DD44C2AFCA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEA082-B3BF-4CE7-BF5B-780622651B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -535,9 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,71 +932,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
     </row>
     <row r="4" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -1113,14 +1113,14 @@
         <v>9</v>
       </c>
       <c r="K6" s="41"/>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="46"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="R10" s="26">
         <v>83253.77</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="27">
         <v>27962.67</v>
       </c>
       <c r="U10" s="2">
@@ -2150,7 +2150,7 @@
       <c r="L25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <f>SUM(M11:M21)</f>
         <v>18.86999999999999</v>
       </c>
@@ -2220,10 +2220,10 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2519,6 +2519,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="A1:S1"/>
@@ -2535,22 +2551,6 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D1:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,6 +4182,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F16:F17"/>
@@ -4198,46 +4238,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
